--- a/33.xlsx
+++ b/33.xlsx
@@ -22,6 +22,9 @@
     <t>gerp_price</t>
   </si>
   <si>
+    <t>gerp_unique</t>
+  </si>
+  <si>
     <t>gerp_true</t>
   </si>
   <si>
@@ -32,9 +35,6 @@
   </si>
   <si>
     <t>gerp_parent</t>
-  </si>
-  <si>
-    <t>gerp_re</t>
   </si>
 </sst>
 </file>
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H199"/>
+  <dimension ref="A1:H181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -589,7 +589,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>374</v>
       </c>
@@ -600,7 +600,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>378</v>
       </c>
@@ -611,7 +611,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>528</v>
       </c>
@@ -622,7 +622,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>529</v>
       </c>
@@ -633,2021 +633,1817 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
+        <v>386</v>
+      </c>
+      <c r="B21">
+        <v>386</v>
+      </c>
+      <c r="C21">
+        <v>215</v>
+      </c>
+      <c r="D21">
+        <v>130</v>
+      </c>
+      <c r="F21">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1">
         <v>350</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>350</v>
       </c>
-      <c r="C21">
+      <c r="C22">
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="1">
+    <row r="23" spans="1:6">
+      <c r="A23" s="1">
         <v>373</v>
       </c>
-      <c r="B22">
+      <c r="B23">
         <v>373</v>
       </c>
-      <c r="C22">
+      <c r="C23">
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1">
+    <row r="24" spans="1:6">
+      <c r="A24" s="1">
         <v>249</v>
       </c>
-      <c r="B23">
+      <c r="B24">
         <v>249</v>
       </c>
-      <c r="C23">
+      <c r="C24">
         <v>142</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1">
+    <row r="25" spans="1:6">
+      <c r="A25" s="1">
         <v>272</v>
       </c>
-      <c r="B24">
+      <c r="B25">
         <v>272</v>
       </c>
-      <c r="C24">
+      <c r="C25">
         <v>148</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="1">
+    <row r="26" spans="1:6">
+      <c r="A26" s="1">
         <v>356</v>
       </c>
-      <c r="B25">
+      <c r="B26">
         <v>356</v>
       </c>
-      <c r="C25">
+      <c r="C26">
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="1">
+    <row r="27" spans="1:6">
+      <c r="A27" s="1">
         <v>375</v>
       </c>
-      <c r="B26">
+      <c r="B27">
         <v>375</v>
       </c>
-      <c r="C26">
+      <c r="C27">
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="1">
+    <row r="28" spans="1:6">
+      <c r="A28" s="1">
         <v>0</v>
       </c>
-      <c r="B27">
+      <c r="B28">
         <v>0</v>
       </c>
-      <c r="C27">
+      <c r="C28">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="1">
+    <row r="29" spans="1:6">
+      <c r="A29" s="1">
         <v>6</v>
       </c>
-      <c r="B28">
+      <c r="B29">
         <v>6</v>
       </c>
-      <c r="C28">
+      <c r="C29">
         <v>205</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="1">
+    <row r="30" spans="1:6">
+      <c r="A30" s="1">
         <v>8</v>
       </c>
-      <c r="B29">
+      <c r="B30">
         <v>8</v>
       </c>
-      <c r="C29">
+      <c r="C30">
         <v>199</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="1">
+    <row r="31" spans="1:6">
+      <c r="A31" s="1">
         <v>10</v>
       </c>
-      <c r="B30">
+      <c r="B31">
         <v>10</v>
       </c>
-      <c r="C30">
+      <c r="C31">
         <v>201</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="1">
+    <row r="32" spans="1:6">
+      <c r="A32" s="1">
         <v>11</v>
       </c>
-      <c r="B31">
+      <c r="B32">
         <v>11</v>
       </c>
-      <c r="C31">
+      <c r="C32">
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="1">
+    <row r="33" spans="1:6">
+      <c r="A33" s="1">
         <v>14</v>
       </c>
-      <c r="B32">
+      <c r="B33">
         <v>14</v>
       </c>
-      <c r="C32">
+      <c r="C33">
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="1">
+    <row r="34" spans="1:6">
+      <c r="A34" s="1">
         <v>17</v>
       </c>
-      <c r="B33">
+      <c r="B34">
         <v>17</v>
       </c>
-      <c r="C33">
+      <c r="C34">
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="1">
+    <row r="35" spans="1:6">
+      <c r="A35" s="1">
         <v>18</v>
       </c>
-      <c r="B34">
+      <c r="B35">
         <v>18</v>
       </c>
-      <c r="C34">
+      <c r="C35">
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="1">
+    <row r="36" spans="1:6">
+      <c r="A36" s="1">
         <v>19</v>
       </c>
-      <c r="B35">
+      <c r="B36">
         <v>19</v>
       </c>
-      <c r="C35">
+      <c r="C36">
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="1">
+    <row r="37" spans="1:6">
+      <c r="A37" s="1">
         <v>23</v>
       </c>
-      <c r="B36">
+      <c r="B37">
         <v>23</v>
       </c>
-      <c r="C36">
+      <c r="C37">
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="1">
+    <row r="38" spans="1:6">
+      <c r="A38" s="1">
         <v>25</v>
       </c>
-      <c r="B37">
+      <c r="B38">
         <v>25</v>
       </c>
-      <c r="C37">
+      <c r="C38">
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="1">
+    <row r="39" spans="1:6">
+      <c r="A39" s="1">
         <v>26</v>
       </c>
-      <c r="B38">
+      <c r="B39">
         <v>26</v>
       </c>
-      <c r="C38">
+      <c r="C39">
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="1">
+    <row r="40" spans="1:6">
+      <c r="A40" s="1">
         <v>28</v>
       </c>
-      <c r="B39">
+      <c r="B40">
         <v>28</v>
       </c>
-      <c r="C39">
+      <c r="C40">
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="1">
+    <row r="41" spans="1:6">
+      <c r="A41" s="1">
         <v>30</v>
       </c>
-      <c r="B40">
+      <c r="B41">
         <v>30</v>
       </c>
-      <c r="C40">
+      <c r="C41">
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="1">
+    <row r="42" spans="1:6">
+      <c r="A42" s="1">
         <v>31</v>
       </c>
-      <c r="B41">
+      <c r="B42">
         <v>31</v>
       </c>
-      <c r="C41">
+      <c r="C42">
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="1">
+    <row r="43" spans="1:6">
+      <c r="A43" s="1">
         <v>33</v>
       </c>
-      <c r="B42">
+      <c r="B43">
         <v>33</v>
       </c>
-      <c r="C42">
+      <c r="C43">
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="1">
+    <row r="44" spans="1:6">
+      <c r="A44" s="1">
         <v>37</v>
       </c>
-      <c r="B43">
+      <c r="B44">
         <v>37</v>
       </c>
-      <c r="C43">
+      <c r="C44">
         <v>65</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="1">
+    <row r="45" spans="1:6">
+      <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B44">
+      <c r="B45">
         <v>43</v>
       </c>
-      <c r="C44">
+      <c r="C45">
         <v>209</v>
       </c>
-      <c r="E44">
+      <c r="F45">
         <v>218</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="1">
+    <row r="46" spans="1:6">
+      <c r="A46" s="1">
         <v>186</v>
       </c>
-      <c r="B45">
+      <c r="B46">
         <v>186</v>
       </c>
-      <c r="C45">
+      <c r="C46">
         <v>212</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="1">
+    <row r="47" spans="1:6">
+      <c r="A47" s="1">
         <v>189</v>
       </c>
-      <c r="B46">
+      <c r="B47">
         <v>189</v>
       </c>
-      <c r="C46">
+      <c r="C47">
         <v>134</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="1">
+    <row r="48" spans="1:6">
+      <c r="A48" s="1">
         <v>193</v>
       </c>
-      <c r="B47">
+      <c r="B48">
         <v>193</v>
       </c>
-      <c r="C47">
+      <c r="C48">
         <v>167</v>
       </c>
-      <c r="E47">
+      <c r="F48">
         <v>164</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="1">
+    <row r="49" spans="1:6">
+      <c r="A49" s="1">
         <v>194</v>
       </c>
-      <c r="B48">
+      <c r="B49">
         <v>194</v>
       </c>
-      <c r="C48">
+      <c r="C49">
         <v>165</v>
       </c>
-      <c r="E48">
+      <c r="F49">
         <v>166</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="1">
+    <row r="50" spans="1:6">
+      <c r="A50" s="1">
         <v>205</v>
       </c>
-      <c r="B49">
+      <c r="B50">
         <v>205</v>
       </c>
-      <c r="C49">
+      <c r="C50">
         <v>179</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="1">
+    <row r="51" spans="1:6">
+      <c r="A51" s="1">
         <v>207</v>
       </c>
-      <c r="B50">
+      <c r="B51">
         <v>207</v>
       </c>
-      <c r="C50">
+      <c r="C51">
         <v>177</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="1">
+    <row r="52" spans="1:6">
+      <c r="A52" s="1">
         <v>209</v>
       </c>
-      <c r="B51">
+      <c r="B52">
         <v>209</v>
       </c>
-      <c r="C51">
+      <c r="C52">
         <v>182</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="1">
+    <row r="53" spans="1:6">
+      <c r="A53" s="1">
         <v>211</v>
       </c>
-      <c r="B52">
+      <c r="B53">
         <v>211</v>
       </c>
-      <c r="C52">
+      <c r="C53">
         <v>183</v>
       </c>
-      <c r="E52">
+      <c r="F53">
         <v>178</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="1">
+    <row r="54" spans="1:6">
+      <c r="A54" s="1">
         <v>216</v>
       </c>
-      <c r="B53">
+      <c r="B54">
         <v>216</v>
       </c>
-      <c r="C53">
+      <c r="C54">
         <v>170</v>
       </c>
-      <c r="E53">
+      <c r="F54">
         <v>169</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="1">
+    <row r="55" spans="1:6">
+      <c r="A55" s="1">
         <v>217</v>
       </c>
-      <c r="B54">
+      <c r="B55">
         <v>217</v>
       </c>
-      <c r="C54">
+      <c r="C55">
         <v>186</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="1">
+    <row r="56" spans="1:6">
+      <c r="A56" s="1">
         <v>220</v>
       </c>
-      <c r="B55">
+      <c r="B56">
         <v>220</v>
       </c>
-      <c r="C55">
+      <c r="C56">
         <v>188</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="1">
+    <row r="57" spans="1:6">
+      <c r="A57" s="1">
         <v>227</v>
       </c>
-      <c r="B56">
+      <c r="B57">
         <v>227</v>
       </c>
-      <c r="C56">
+      <c r="C57">
         <v>187</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="1">
+    <row r="58" spans="1:6">
+      <c r="A58" s="1">
         <v>229</v>
       </c>
-      <c r="B57">
+      <c r="B58">
         <v>229</v>
       </c>
-      <c r="C57">
+      <c r="C58">
         <v>155</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="1">
+    <row r="59" spans="1:6">
+      <c r="A59" s="1">
         <v>230</v>
       </c>
-      <c r="B58">
+      <c r="B59">
         <v>230</v>
       </c>
-      <c r="C58">
+      <c r="C59">
         <v>185</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="1">
+    <row r="60" spans="1:6">
+      <c r="A60" s="1">
         <v>231</v>
       </c>
-      <c r="B59">
+      <c r="B60">
         <v>231</v>
       </c>
-      <c r="C59">
+      <c r="C60">
         <v>159</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="1">
+    <row r="61" spans="1:6">
+      <c r="A61" s="1">
         <v>232</v>
       </c>
-      <c r="B60">
+      <c r="B61">
         <v>232</v>
       </c>
-      <c r="C60">
+      <c r="C61">
         <v>153</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="1">
+    <row r="62" spans="1:6">
+      <c r="A62" s="1">
         <v>234</v>
       </c>
-      <c r="B61">
+      <c r="B62">
         <v>234</v>
       </c>
-      <c r="C61">
+      <c r="C62">
         <v>149</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="1">
+    <row r="63" spans="1:6">
+      <c r="A63" s="1">
         <v>235</v>
       </c>
-      <c r="B62">
+      <c r="B63">
         <v>235</v>
       </c>
-      <c r="C62">
+      <c r="C63">
         <v>145</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="1">
+    <row r="64" spans="1:6">
+      <c r="A64" s="1">
         <v>243</v>
       </c>
-      <c r="B63">
+      <c r="B64">
         <v>243</v>
       </c>
-      <c r="C63">
+      <c r="C64">
         <v>154</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="1">
+    <row r="65" spans="1:7">
+      <c r="A65" s="1">
         <v>247</v>
       </c>
-      <c r="B64">
+      <c r="B65">
         <v>247</v>
       </c>
-      <c r="C64">
+      <c r="C65">
         <v>151</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
-      <c r="A65" s="1">
+    <row r="66" spans="1:7">
+      <c r="A66" s="1">
         <v>248</v>
       </c>
-      <c r="B65">
+      <c r="B66">
         <v>248</v>
       </c>
-      <c r="C65">
+      <c r="C66">
         <v>146</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
-      <c r="A66" s="1">
+    <row r="67" spans="1:7">
+      <c r="A67" s="1">
         <v>252</v>
       </c>
-      <c r="B66">
+      <c r="B67">
         <v>252</v>
       </c>
-      <c r="C66">
+      <c r="C67">
         <v>158</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
-      <c r="A67" s="1">
+    <row r="68" spans="1:7">
+      <c r="A68" s="1">
         <v>253</v>
       </c>
-      <c r="B67">
+      <c r="B68">
         <v>253</v>
       </c>
-      <c r="C67">
+      <c r="C68">
         <v>152</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
-      <c r="A68" s="1">
+    <row r="69" spans="1:7">
+      <c r="A69" s="1">
         <v>254</v>
       </c>
-      <c r="B68">
+      <c r="B69">
         <v>254</v>
       </c>
-      <c r="C68">
+      <c r="C69">
         <v>193</v>
       </c>
-      <c r="F68">
+      <c r="G69">
         <v>192</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
-      <c r="A69" s="1">
+    <row r="70" spans="1:7">
+      <c r="A70" s="1">
         <v>255</v>
       </c>
-      <c r="B69">
+      <c r="B70">
         <v>255</v>
       </c>
-      <c r="C69">
+      <c r="C70">
         <v>194</v>
       </c>
-      <c r="F69">
+      <c r="G70">
         <v>191</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
-      <c r="A70" s="1">
+    <row r="71" spans="1:7">
+      <c r="A71" s="1">
         <v>256</v>
       </c>
-      <c r="B70">
+      <c r="B71">
         <v>256</v>
       </c>
-      <c r="C70">
+      <c r="C71">
         <v>184</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
-      <c r="A71" s="1">
+    <row r="72" spans="1:7">
+      <c r="A72" s="1">
         <v>257</v>
       </c>
-      <c r="B71">
+      <c r="B72">
         <v>257</v>
       </c>
-      <c r="C71">
+      <c r="C72">
         <v>160</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
-      <c r="A72" s="1">
+    <row r="73" spans="1:7">
+      <c r="A73" s="1">
         <v>258</v>
       </c>
-      <c r="B72">
+      <c r="B73">
         <v>258</v>
       </c>
-      <c r="C72">
+      <c r="C73">
         <v>195</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
-      <c r="A73" s="1">
+    <row r="74" spans="1:7">
+      <c r="A74" s="1">
         <v>264</v>
       </c>
-      <c r="B73">
+      <c r="B74">
         <v>264</v>
       </c>
-      <c r="C73">
+      <c r="C74">
         <v>138</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
-      <c r="A74" s="1">
+    <row r="75" spans="1:7">
+      <c r="A75" s="1">
         <v>265</v>
       </c>
-      <c r="B74">
+      <c r="B75">
         <v>265</v>
       </c>
-      <c r="C74">
+      <c r="C75">
         <v>172</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
-      <c r="A75" s="1">
+    <row r="76" spans="1:7">
+      <c r="A76" s="1">
         <v>271</v>
       </c>
-      <c r="B75">
+      <c r="B76">
         <v>271</v>
       </c>
-      <c r="C75">
+      <c r="C76">
         <v>137</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
-      <c r="A76" s="1">
+    <row r="77" spans="1:7">
+      <c r="A77" s="1">
         <v>278</v>
       </c>
-      <c r="B76">
+      <c r="B77">
         <v>278</v>
       </c>
-      <c r="C76">
+      <c r="C77">
         <v>143</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
-      <c r="A77" s="1">
+    <row r="78" spans="1:7">
+      <c r="A78" s="1">
         <v>279</v>
       </c>
-      <c r="B77">
+      <c r="B78">
         <v>279</v>
       </c>
-      <c r="C77">
+      <c r="C78">
         <v>144</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
-      <c r="A78" s="1">
+    <row r="79" spans="1:7">
+      <c r="A79" s="1">
         <v>281</v>
       </c>
-      <c r="B78">
+      <c r="B79">
         <v>281</v>
       </c>
-      <c r="C78">
+      <c r="C79">
         <v>162</v>
       </c>
-      <c r="E78">
+      <c r="F79">
         <v>161</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
-      <c r="A79" s="1">
+    <row r="80" spans="1:7">
+      <c r="A80" s="1">
         <v>282</v>
       </c>
-      <c r="B79">
+      <c r="B80">
         <v>282</v>
       </c>
-      <c r="C79">
+      <c r="C80">
         <v>190</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
-      <c r="A80" s="1">
+    <row r="81" spans="1:3">
+      <c r="A81" s="1">
         <v>305</v>
       </c>
-      <c r="B80">
+      <c r="B81">
         <v>305</v>
       </c>
-      <c r="C80">
+      <c r="C81">
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
-      <c r="A81" s="1">
+    <row r="82" spans="1:3">
+      <c r="A82" s="1">
         <v>306</v>
       </c>
-      <c r="B81">
+      <c r="B82">
         <v>306</v>
       </c>
-      <c r="C81">
+      <c r="C82">
         <v>35</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
-      <c r="A82" s="1">
+    <row r="83" spans="1:3">
+      <c r="A83" s="1">
         <v>307</v>
       </c>
-      <c r="B82">
+      <c r="B83">
         <v>307</v>
       </c>
-      <c r="C82">
+      <c r="C83">
         <v>27</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
-      <c r="A83" s="1">
+    <row r="84" spans="1:3">
+      <c r="A84" s="1">
         <v>308</v>
       </c>
-      <c r="B83">
+      <c r="B84">
         <v>308</v>
       </c>
-      <c r="C83">
+      <c r="C84">
         <v>36</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
-      <c r="A84" s="1">
+    <row r="85" spans="1:3">
+      <c r="A85" s="1">
         <v>309</v>
       </c>
-      <c r="B84">
+      <c r="B85">
         <v>309</v>
       </c>
-      <c r="C84">
+      <c r="C85">
         <v>202</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
-      <c r="A85" s="1">
+    <row r="86" spans="1:3">
+      <c r="A86" s="1">
         <v>310</v>
       </c>
-      <c r="B85">
+      <c r="B86">
         <v>310</v>
       </c>
-      <c r="C85">
+      <c r="C86">
         <v>203</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
-      <c r="A86" s="1">
+    <row r="87" spans="1:3">
+      <c r="A87" s="1">
         <v>311</v>
       </c>
-      <c r="B86">
+      <c r="B87">
         <v>311</v>
       </c>
-      <c r="C86">
+      <c r="C87">
         <v>26</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
-      <c r="A87" s="1">
+    <row r="88" spans="1:3">
+      <c r="A88" s="1">
         <v>312</v>
       </c>
-      <c r="B87">
+      <c r="B88">
         <v>312</v>
       </c>
-      <c r="C87">
+      <c r="C88">
         <v>19</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
-      <c r="A88" s="1">
+    <row r="89" spans="1:3">
+      <c r="A89" s="1">
         <v>313</v>
       </c>
-      <c r="B88">
+      <c r="B89">
         <v>313</v>
       </c>
-      <c r="C88">
+      <c r="C89">
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
-      <c r="A89" s="1">
+    <row r="90" spans="1:3">
+      <c r="A90" s="1">
         <v>314</v>
       </c>
-      <c r="B89">
+      <c r="B90">
         <v>314</v>
       </c>
-      <c r="C89">
+      <c r="C90">
         <v>20</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
-      <c r="A90" s="1">
+    <row r="91" spans="1:3">
+      <c r="A91" s="1">
         <v>315</v>
       </c>
-      <c r="B90">
+      <c r="B91">
         <v>315</v>
       </c>
-      <c r="C90">
+      <c r="C91">
         <v>14</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
-      <c r="A91" s="1">
+    <row r="92" spans="1:3">
+      <c r="A92" s="1">
         <v>316</v>
       </c>
-      <c r="B91">
+      <c r="B92">
         <v>316</v>
       </c>
-      <c r="C91">
+      <c r="C92">
         <v>13</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
-      <c r="A92" s="1">
+    <row r="93" spans="1:3">
+      <c r="A93" s="1">
         <v>317</v>
       </c>
-      <c r="B92">
+      <c r="B93">
         <v>317</v>
       </c>
-      <c r="C92">
+      <c r="C93">
         <v>37</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
-      <c r="A93" s="1">
+    <row r="94" spans="1:3">
+      <c r="A94" s="1">
         <v>336</v>
       </c>
-      <c r="B93">
+      <c r="B94">
         <v>336</v>
       </c>
-      <c r="C93">
+      <c r="C94">
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
-      <c r="A94" s="1">
+    <row r="95" spans="1:3">
+      <c r="A95" s="1">
         <v>337</v>
       </c>
-      <c r="B94">
+      <c r="B95">
         <v>337</v>
       </c>
-      <c r="C94">
+      <c r="C95">
         <v>72</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
-      <c r="A95" s="1">
+    <row r="96" spans="1:3">
+      <c r="A96" s="1">
         <v>338</v>
       </c>
-      <c r="B95">
+      <c r="B96">
         <v>338</v>
       </c>
-      <c r="C95">
+      <c r="C96">
         <v>79</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
-      <c r="A96" s="1">
+    <row r="97" spans="1:6">
+      <c r="A97" s="1">
         <v>339</v>
       </c>
-      <c r="B96">
+      <c r="B97">
         <v>339</v>
       </c>
-      <c r="C96">
+      <c r="C97">
         <v>80</v>
       </c>
-      <c r="E96">
+      <c r="F97">
         <v>81</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
-      <c r="A97" s="1">
+    <row r="98" spans="1:6">
+      <c r="A98" s="1">
         <v>340</v>
       </c>
-      <c r="B97">
+      <c r="B98">
         <v>340</v>
       </c>
-      <c r="D97">
+      <c r="E98">
         <v>77</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
-      <c r="A98" s="1">
+    <row r="99" spans="1:6">
+      <c r="A99" s="1">
         <v>342</v>
       </c>
-      <c r="B98">
+      <c r="B99">
         <v>342</v>
       </c>
-      <c r="C98">
+      <c r="C99">
         <v>78</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
-      <c r="A99" s="1">
+    <row r="100" spans="1:6">
+      <c r="A100" s="1">
         <v>343</v>
       </c>
-      <c r="B99">
+      <c r="B100">
         <v>343</v>
       </c>
-      <c r="C99">
+      <c r="C100">
         <v>103</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
-      <c r="A100" s="1">
+    <row r="101" spans="1:6">
+      <c r="A101" s="1">
         <v>344</v>
       </c>
-      <c r="B100">
+      <c r="B101">
         <v>344</v>
       </c>
-      <c r="D100">
+      <c r="E101">
         <v>104</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
-      <c r="A101" s="1">
+    <row r="102" spans="1:6">
+      <c r="A102" s="1">
         <v>345</v>
       </c>
-      <c r="B101">
+      <c r="B102">
         <v>345</v>
       </c>
-      <c r="C101">
+      <c r="C102">
         <v>73</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
-      <c r="A102" s="1">
+    <row r="103" spans="1:6">
+      <c r="A103" s="1">
         <v>346</v>
       </c>
-      <c r="B102">
+      <c r="B103">
         <v>346</v>
       </c>
-      <c r="C102">
+      <c r="C103">
         <v>82</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
-      <c r="A103" s="1">
+    <row r="104" spans="1:6">
+      <c r="A104" s="1">
         <v>347</v>
       </c>
-      <c r="B103">
+      <c r="B104">
         <v>347</v>
       </c>
-      <c r="C103">
+      <c r="C104">
         <v>100</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
-      <c r="A104" s="1">
+    <row r="105" spans="1:6">
+      <c r="A105" s="1">
         <v>348</v>
       </c>
-      <c r="B104">
+      <c r="B105">
         <v>348</v>
       </c>
-      <c r="C104">
+      <c r="C105">
         <v>101</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
-      <c r="A105" s="1">
+    <row r="106" spans="1:6">
+      <c r="A106" s="1">
         <v>351</v>
       </c>
-      <c r="B105">
+      <c r="B106">
         <v>351</v>
       </c>
-      <c r="C105">
+      <c r="C106">
         <v>96</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
-      <c r="A106" s="1">
+    <row r="107" spans="1:6">
+      <c r="A107" s="1">
         <v>352</v>
       </c>
-      <c r="B106">
+      <c r="B107">
         <v>352</v>
       </c>
-      <c r="C106">
+      <c r="C107">
         <v>95</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
-      <c r="A107" s="1">
+    <row r="108" spans="1:6">
+      <c r="A108" s="1">
         <v>353</v>
       </c>
-      <c r="B107">
+      <c r="B108">
         <v>353</v>
       </c>
-      <c r="C107">
+      <c r="C108">
         <v>97</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
-      <c r="A108" s="1">
+    <row r="109" spans="1:6">
+      <c r="A109" s="1">
         <v>354</v>
       </c>
-      <c r="B108">
+      <c r="B109">
         <v>354</v>
       </c>
-      <c r="C108">
+      <c r="C109">
         <v>98</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
-      <c r="A109" s="1">
+    <row r="110" spans="1:6">
+      <c r="A110" s="1">
         <v>358</v>
       </c>
-      <c r="B109">
+      <c r="B110">
         <v>358</v>
       </c>
-      <c r="C109">
+      <c r="C110">
         <v>93</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
-      <c r="A110" s="1">
+    <row r="111" spans="1:6">
+      <c r="A111" s="1">
         <v>360</v>
       </c>
-      <c r="B110">
+      <c r="B111">
         <v>360</v>
       </c>
-      <c r="C110">
+      <c r="C111">
         <v>99</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
-      <c r="A111" s="1">
+    <row r="112" spans="1:6">
+      <c r="A112" s="1">
         <v>361</v>
       </c>
-      <c r="B111">
+      <c r="B112">
         <v>361</v>
       </c>
-      <c r="C111">
+      <c r="C112">
         <v>86</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
-      <c r="A112" s="1">
+    <row r="113" spans="1:6">
+      <c r="A113" s="1">
         <v>362</v>
       </c>
-      <c r="B112">
+      <c r="B113">
         <v>362</v>
       </c>
-      <c r="C112">
+      <c r="C113">
         <v>88</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
-      <c r="A113" s="1">
+    <row r="114" spans="1:6">
+      <c r="A114" s="1">
         <v>363</v>
       </c>
-      <c r="B113">
+      <c r="B114">
         <v>363</v>
       </c>
-      <c r="C113">
+      <c r="C114">
         <v>92</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
-      <c r="A114" s="1">
+    <row r="115" spans="1:6">
+      <c r="A115" s="1">
         <v>369</v>
       </c>
-      <c r="B114">
+      <c r="B115">
         <v>369</v>
       </c>
-      <c r="C114">
+      <c r="C115">
         <v>85</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
-      <c r="A115" s="1">
+    <row r="116" spans="1:6">
+      <c r="A116" s="1">
         <v>371</v>
       </c>
-      <c r="B115">
+      <c r="B116">
         <v>371</v>
       </c>
-      <c r="C115">
+      <c r="C116">
         <v>90</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
-      <c r="A116" s="1">
+    <row r="117" spans="1:6">
+      <c r="A117" s="1">
         <v>372</v>
       </c>
-      <c r="B116">
+      <c r="B117">
         <v>372</v>
       </c>
-      <c r="C116">
+      <c r="C117">
         <v>89</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
-      <c r="A117" s="1">
+    <row r="118" spans="1:6">
+      <c r="A118" s="1">
         <v>377</v>
       </c>
-      <c r="B117">
+      <c r="B118">
         <v>377</v>
       </c>
-      <c r="C117">
+      <c r="C118">
         <v>23</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
-      <c r="A118" s="1">
+    <row r="119" spans="1:6">
+      <c r="A119" s="1">
         <v>381</v>
       </c>
-      <c r="B118">
+      <c r="B119">
         <v>381</v>
       </c>
-      <c r="C118">
+      <c r="C119">
         <v>64</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
-      <c r="A119" s="1">
-        <v>386</v>
-      </c>
-      <c r="B119">
-        <v>386</v>
-      </c>
-      <c r="C119">
-        <v>117</v>
-      </c>
-      <c r="E119">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:6">
       <c r="A120" s="1">
-        <v>387</v>
+        <v>492</v>
       </c>
       <c r="B120">
-        <v>387</v>
+        <v>492</v>
       </c>
       <c r="C120">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
       <c r="A121" s="1">
-        <v>388</v>
+        <v>494</v>
       </c>
       <c r="B121">
-        <v>388</v>
+        <v>494</v>
       </c>
       <c r="C121">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7">
+        <v>216</v>
+      </c>
+      <c r="F121">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
       <c r="A122" s="1">
-        <v>389</v>
+        <v>513</v>
       </c>
       <c r="B122">
-        <v>389</v>
+        <v>513</v>
       </c>
       <c r="C122">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
       <c r="A123" s="1">
-        <v>390</v>
+        <v>519</v>
       </c>
       <c r="B123">
-        <v>390</v>
+        <v>519</v>
       </c>
       <c r="C123">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
       <c r="A124" s="1">
-        <v>391</v>
+        <v>520</v>
       </c>
       <c r="B124">
-        <v>391</v>
+        <v>520</v>
       </c>
       <c r="C124">
-        <v>125</v>
-      </c>
-      <c r="G124">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
       <c r="A125" s="1">
-        <v>392</v>
+        <v>521</v>
       </c>
       <c r="B125">
-        <v>392</v>
+        <v>521</v>
       </c>
       <c r="C125">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
       <c r="A126" s="1">
-        <v>393</v>
+        <v>522</v>
       </c>
       <c r="B126">
-        <v>393</v>
+        <v>522</v>
       </c>
       <c r="C126">
-        <v>126</v>
-      </c>
-      <c r="G126">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
       <c r="A127" s="1">
-        <v>394</v>
+        <v>523</v>
       </c>
       <c r="B127">
-        <v>394</v>
+        <v>523</v>
       </c>
       <c r="C127">
-        <v>127</v>
-      </c>
-      <c r="G127">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
       <c r="A128" s="1">
-        <v>395</v>
+        <v>525</v>
       </c>
       <c r="B128">
-        <v>395</v>
+        <v>525</v>
       </c>
       <c r="C128">
-        <v>121</v>
+        <v>210</v>
+      </c>
+      <c r="F128">
+        <v>24</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="1">
-        <v>400</v>
+        <v>526</v>
       </c>
       <c r="B129">
-        <v>400</v>
+        <v>526</v>
       </c>
       <c r="C129">
-        <v>131</v>
+        <v>8</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="1">
-        <v>401</v>
+        <v>530</v>
       </c>
       <c r="B130">
-        <v>401</v>
+        <v>530</v>
       </c>
       <c r="C130">
-        <v>120</v>
+        <v>9</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="1">
-        <v>403</v>
+        <v>531</v>
       </c>
       <c r="B131">
-        <v>403</v>
+        <v>531</v>
       </c>
       <c r="C131">
-        <v>119</v>
+        <v>30</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="1">
-        <v>405</v>
+        <v>537</v>
       </c>
       <c r="B132">
-        <v>405</v>
+        <v>537</v>
       </c>
       <c r="C132">
-        <v>123</v>
+        <v>31</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="1">
-        <v>407</v>
+        <v>543</v>
       </c>
       <c r="B133">
-        <v>407</v>
+        <v>543</v>
       </c>
       <c r="C133">
-        <v>122</v>
+        <v>32</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="1">
-        <v>409</v>
+        <v>549</v>
       </c>
       <c r="B134">
-        <v>409</v>
-      </c>
-      <c r="C134">
-        <v>132</v>
+        <v>549</v>
+      </c>
+      <c r="E134">
+        <v>29</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="1">
-        <v>415</v>
+        <v>550</v>
       </c>
       <c r="B135">
-        <v>415</v>
-      </c>
-      <c r="D135">
-        <v>133</v>
+        <v>550</v>
+      </c>
+      <c r="C135">
+        <v>61</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="1">
-        <v>492</v>
+        <v>551</v>
       </c>
       <c r="B136">
-        <v>492</v>
+        <v>551</v>
       </c>
       <c r="C136">
-        <v>28</v>
+        <v>60</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="1">
-        <v>494</v>
+        <v>552</v>
       </c>
       <c r="B137">
-        <v>494</v>
-      </c>
-      <c r="C137">
-        <v>216</v>
+        <v>552</v>
       </c>
       <c r="E137">
-        <v>105</v>
+        <v>58</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="1">
-        <v>513</v>
+        <v>554</v>
       </c>
       <c r="B138">
-        <v>513</v>
+        <v>554</v>
       </c>
       <c r="C138">
-        <v>56</v>
+        <v>5</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="1">
-        <v>519</v>
+        <v>555</v>
       </c>
       <c r="B139">
-        <v>519</v>
-      </c>
-      <c r="C139">
-        <v>44</v>
+        <v>555</v>
+      </c>
+      <c r="E139">
+        <v>71</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="1">
-        <v>520</v>
+        <v>556</v>
       </c>
       <c r="B140">
-        <v>520</v>
+        <v>556</v>
       </c>
       <c r="C140">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="1">
-        <v>521</v>
+        <v>557</v>
       </c>
       <c r="B141">
-        <v>521</v>
+        <v>557</v>
       </c>
       <c r="C141">
-        <v>47</v>
+        <v>206</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="1">
-        <v>522</v>
+        <v>562</v>
       </c>
       <c r="B142">
-        <v>522</v>
+        <v>562</v>
       </c>
       <c r="C142">
-        <v>45</v>
+        <v>113</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="1">
-        <v>523</v>
+        <v>595</v>
       </c>
       <c r="B143">
-        <v>523</v>
+        <v>595</v>
       </c>
       <c r="C143">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="1">
-        <v>525</v>
+        <v>597</v>
       </c>
       <c r="B144">
-        <v>525</v>
+        <v>597</v>
       </c>
       <c r="C144">
-        <v>210</v>
-      </c>
-      <c r="E144">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
       <c r="A145" s="1">
-        <v>526</v>
+        <v>599</v>
       </c>
       <c r="B145">
-        <v>526</v>
+        <v>599</v>
       </c>
       <c r="C145">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
       <c r="A146" s="1">
-        <v>530</v>
+        <v>601</v>
       </c>
       <c r="B146">
-        <v>530</v>
+        <v>601</v>
       </c>
       <c r="C146">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
+      <c r="A147" s="1">
+        <v>603</v>
+      </c>
+      <c r="B147">
+        <v>603</v>
+      </c>
+      <c r="C147">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
+      <c r="A148" s="1">
+        <v>204</v>
+      </c>
+      <c r="B148">
+        <v>204</v>
+      </c>
+      <c r="F148">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
+      <c r="A149" s="1">
+        <v>206</v>
+      </c>
+      <c r="B149">
+        <v>206</v>
+      </c>
+      <c r="F149">
+        <v>181</v>
+      </c>
+      <c r="G149">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
+      <c r="A150" s="1">
+        <v>236</v>
+      </c>
+      <c r="B150">
+        <v>236</v>
+      </c>
+      <c r="F150">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
+      <c r="A151" s="1">
+        <v>4</v>
+      </c>
+      <c r="B151">
+        <v>4</v>
+      </c>
+      <c r="H151">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
+      <c r="A152" s="1">
+        <v>5</v>
+      </c>
+      <c r="B152">
+        <v>5</v>
+      </c>
+      <c r="H152">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
+      <c r="A153" s="1">
+        <v>7</v>
+      </c>
+      <c r="B153">
+        <v>7</v>
+      </c>
+      <c r="H153">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
+      <c r="A154" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="147" spans="1:4">
-      <c r="A147" s="1">
-        <v>531</v>
-      </c>
-      <c r="B147">
-        <v>531</v>
-      </c>
-      <c r="C147">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4">
-      <c r="A148" s="1">
-        <v>537</v>
-      </c>
-      <c r="B148">
-        <v>537</v>
-      </c>
-      <c r="C148">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4">
-      <c r="A149" s="1">
-        <v>543</v>
-      </c>
-      <c r="B149">
-        <v>543</v>
-      </c>
-      <c r="C149">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4">
-      <c r="A150" s="1">
-        <v>549</v>
-      </c>
-      <c r="B150">
-        <v>549</v>
-      </c>
-      <c r="D150">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4">
-      <c r="A151" s="1">
-        <v>550</v>
-      </c>
-      <c r="B151">
-        <v>550</v>
-      </c>
-      <c r="C151">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4">
-      <c r="A152" s="1">
-        <v>551</v>
-      </c>
-      <c r="B152">
-        <v>551</v>
-      </c>
-      <c r="C152">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4">
-      <c r="A153" s="1">
-        <v>552</v>
-      </c>
-      <c r="B153">
-        <v>552</v>
-      </c>
-      <c r="D153">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4">
-      <c r="A154" s="1">
-        <v>554</v>
-      </c>
       <c r="B154">
-        <v>554</v>
-      </c>
-      <c r="C154">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4">
+        <v>9</v>
+      </c>
+      <c r="H154">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
       <c r="A155" s="1">
-        <v>555</v>
+        <v>16</v>
       </c>
       <c r="B155">
-        <v>555</v>
-      </c>
-      <c r="D155">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4">
+        <v>16</v>
+      </c>
+      <c r="H155">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
       <c r="A156" s="1">
-        <v>556</v>
+        <v>192</v>
       </c>
       <c r="B156">
-        <v>556</v>
-      </c>
-      <c r="C156">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4">
+        <v>192</v>
+      </c>
+      <c r="H156">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
       <c r="A157" s="1">
-        <v>557</v>
+        <v>195</v>
       </c>
       <c r="B157">
-        <v>557</v>
-      </c>
-      <c r="C157">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4">
+        <v>195</v>
+      </c>
+      <c r="H157">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
       <c r="A158" s="1">
-        <v>562</v>
+        <v>196</v>
       </c>
       <c r="B158">
-        <v>562</v>
-      </c>
-      <c r="C158">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4">
+        <v>196</v>
+      </c>
+      <c r="H158">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
       <c r="A159" s="1">
-        <v>595</v>
+        <v>198</v>
       </c>
       <c r="B159">
-        <v>595</v>
-      </c>
-      <c r="C159">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4">
+        <v>198</v>
+      </c>
+      <c r="H159">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
       <c r="A160" s="1">
-        <v>597</v>
+        <v>200</v>
       </c>
       <c r="B160">
-        <v>597</v>
-      </c>
-      <c r="C160">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7">
+        <v>200</v>
+      </c>
+      <c r="H160">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
       <c r="A161" s="1">
-        <v>599</v>
+        <v>203</v>
       </c>
       <c r="B161">
-        <v>599</v>
-      </c>
-      <c r="C161">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7">
+        <v>203</v>
+      </c>
+      <c r="H161">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
       <c r="A162" s="1">
-        <v>601</v>
+        <v>215</v>
       </c>
       <c r="B162">
-        <v>601</v>
-      </c>
-      <c r="C162">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7">
+        <v>215</v>
+      </c>
+      <c r="H162">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
       <c r="A163" s="1">
-        <v>603</v>
+        <v>267</v>
       </c>
       <c r="B163">
-        <v>603</v>
-      </c>
-      <c r="C163">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7">
+        <v>267</v>
+      </c>
+      <c r="H163">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
       <c r="A164" s="1">
-        <v>204</v>
+        <v>269</v>
       </c>
       <c r="B164">
-        <v>204</v>
-      </c>
-      <c r="E164">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7">
+        <v>269</v>
+      </c>
+      <c r="H164">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
       <c r="A165" s="1">
-        <v>206</v>
+        <v>319</v>
       </c>
       <c r="B165">
-        <v>206</v>
-      </c>
-      <c r="E165">
-        <v>181</v>
-      </c>
-      <c r="F165">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7">
+        <v>319</v>
+      </c>
+      <c r="H165">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
       <c r="A166" s="1">
-        <v>236</v>
+        <v>334</v>
       </c>
       <c r="B166">
-        <v>236</v>
-      </c>
-      <c r="E166">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7">
+        <v>334</v>
+      </c>
+      <c r="H166">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
       <c r="A167" s="1">
-        <v>4</v>
+        <v>357</v>
       </c>
       <c r="B167">
-        <v>4</v>
-      </c>
-      <c r="G167">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7">
+        <v>357</v>
+      </c>
+      <c r="H167">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
       <c r="A168" s="1">
-        <v>5</v>
+        <v>561</v>
       </c>
       <c r="B168">
-        <v>5</v>
-      </c>
-      <c r="G168">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7">
+        <v>561</v>
+      </c>
+      <c r="H168">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
       <c r="A169" s="1">
-        <v>7</v>
+        <v>563</v>
       </c>
       <c r="B169">
-        <v>7</v>
-      </c>
-      <c r="G169">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7">
+        <v>563</v>
+      </c>
+      <c r="H169">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
       <c r="A170" s="1">
-        <v>9</v>
+        <v>564</v>
       </c>
       <c r="B170">
-        <v>9</v>
-      </c>
-      <c r="G170">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7">
+        <v>564</v>
+      </c>
+      <c r="H170">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
       <c r="A171" s="1">
-        <v>16</v>
+        <v>575</v>
       </c>
       <c r="B171">
-        <v>16</v>
-      </c>
-      <c r="G171">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7">
+        <v>575</v>
+      </c>
+      <c r="H171">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
       <c r="A172" s="1">
-        <v>192</v>
+        <v>580</v>
       </c>
       <c r="B172">
-        <v>192</v>
-      </c>
-      <c r="G172">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7">
+        <v>580</v>
+      </c>
+      <c r="H172">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
       <c r="A173" s="1">
-        <v>195</v>
+        <v>590</v>
       </c>
       <c r="B173">
-        <v>195</v>
-      </c>
-      <c r="G173">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7">
+        <v>590</v>
+      </c>
+      <c r="H173">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
       <c r="A174" s="1">
-        <v>196</v>
+        <v>592</v>
       </c>
       <c r="B174">
-        <v>196</v>
-      </c>
-      <c r="G174">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7">
+        <v>592</v>
+      </c>
+      <c r="H174">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
       <c r="A175" s="1">
-        <v>198</v>
+        <v>593</v>
       </c>
       <c r="B175">
-        <v>198</v>
-      </c>
-      <c r="G175">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7">
+        <v>593</v>
+      </c>
+      <c r="H175">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
       <c r="A176" s="1">
-        <v>200</v>
+        <v>594</v>
       </c>
       <c r="B176">
-        <v>200</v>
-      </c>
-      <c r="G176">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7">
+        <v>594</v>
+      </c>
+      <c r="H176">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
       <c r="A177" s="1">
-        <v>203</v>
+        <v>596</v>
       </c>
       <c r="B177">
-        <v>203</v>
-      </c>
-      <c r="G177">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7">
+        <v>596</v>
+      </c>
+      <c r="H177">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
       <c r="A178" s="1">
-        <v>215</v>
+        <v>598</v>
       </c>
       <c r="B178">
-        <v>215</v>
-      </c>
-      <c r="G178">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7">
+        <v>598</v>
+      </c>
+      <c r="H178">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
       <c r="A179" s="1">
-        <v>219</v>
+        <v>600</v>
       </c>
       <c r="B179">
-        <v>219</v>
-      </c>
-      <c r="G179">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7">
+        <v>600</v>
+      </c>
+      <c r="H179">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
       <c r="A180" s="1">
-        <v>267</v>
+        <v>602</v>
       </c>
       <c r="B180">
-        <v>267</v>
-      </c>
-      <c r="G180">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7">
+        <v>602</v>
+      </c>
+      <c r="H180">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
       <c r="A181" s="1">
-        <v>269</v>
+        <v>604</v>
       </c>
       <c r="B181">
-        <v>269</v>
-      </c>
-      <c r="G181">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7">
-      <c r="A182" s="1">
-        <v>319</v>
-      </c>
-      <c r="B182">
-        <v>319</v>
-      </c>
-      <c r="G182">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7">
-      <c r="A183" s="1">
-        <v>334</v>
-      </c>
-      <c r="B183">
-        <v>334</v>
-      </c>
-      <c r="G183">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7">
-      <c r="A184" s="1">
-        <v>357</v>
-      </c>
-      <c r="B184">
-        <v>357</v>
-      </c>
-      <c r="G184">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7">
-      <c r="A185" s="1">
-        <v>561</v>
-      </c>
-      <c r="B185">
-        <v>561</v>
-      </c>
-      <c r="G185">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7">
-      <c r="A186" s="1">
-        <v>563</v>
-      </c>
-      <c r="B186">
-        <v>563</v>
-      </c>
-      <c r="G186">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7">
-      <c r="A187" s="1">
-        <v>564</v>
-      </c>
-      <c r="B187">
-        <v>564</v>
-      </c>
-      <c r="G187">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7">
-      <c r="A188" s="1">
-        <v>575</v>
-      </c>
-      <c r="B188">
-        <v>575</v>
-      </c>
-      <c r="G188">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7">
-      <c r="A189" s="1">
-        <v>580</v>
-      </c>
-      <c r="B189">
-        <v>580</v>
-      </c>
-      <c r="G189">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7">
-      <c r="A190" s="1">
-        <v>590</v>
-      </c>
-      <c r="B190">
-        <v>590</v>
-      </c>
-      <c r="G190">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7">
-      <c r="A191" s="1">
-        <v>592</v>
-      </c>
-      <c r="B191">
-        <v>592</v>
-      </c>
-      <c r="G191">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7">
-      <c r="A192" s="1">
-        <v>593</v>
-      </c>
-      <c r="B192">
-        <v>593</v>
-      </c>
-      <c r="G192">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
-      <c r="A193" s="1">
-        <v>594</v>
-      </c>
-      <c r="B193">
-        <v>594</v>
-      </c>
-      <c r="G193">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
-      <c r="A194" s="1">
-        <v>596</v>
-      </c>
-      <c r="B194">
-        <v>596</v>
-      </c>
-      <c r="G194">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8">
-      <c r="A195" s="1">
-        <v>598</v>
-      </c>
-      <c r="B195">
-        <v>598</v>
-      </c>
-      <c r="G195">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
-      <c r="A196" s="1">
-        <v>600</v>
-      </c>
-      <c r="B196">
-        <v>600</v>
-      </c>
-      <c r="G196">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8">
-      <c r="A197" s="1">
-        <v>602</v>
-      </c>
-      <c r="B197">
-        <v>602</v>
-      </c>
-      <c r="G197">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8">
-      <c r="A198" s="1">
         <v>604</v>
       </c>
-      <c r="B198">
-        <v>604</v>
-      </c>
-      <c r="G198">
+      <c r="H181">
         <v>38</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8">
-      <c r="A199" s="1">
-        <v>566</v>
-      </c>
-      <c r="B199">
-        <v>566</v>
-      </c>
-      <c r="H199">
-        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/33.xlsx
+++ b/33.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>index</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t>gerp_parent</t>
+  </si>
+  <si>
+    <t>gerp_re</t>
   </si>
 </sst>
 </file>
@@ -392,13 +395,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H181"/>
+  <dimension ref="A1:I182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -423,8 +426,11 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>24</v>
       </c>
@@ -435,7 +441,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>202</v>
       </c>
@@ -446,7 +452,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>214</v>
       </c>
@@ -457,7 +463,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>274</v>
       </c>
@@ -468,7 +474,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>280</v>
       </c>
@@ -479,7 +485,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7" s="1">
         <v>341</v>
       </c>
@@ -490,7 +496,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8" s="1">
         <v>349</v>
       </c>
@@ -501,7 +507,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9" s="1">
         <v>359</v>
       </c>
@@ -512,7 +518,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="A10" s="1">
         <v>376</v>
       </c>
@@ -523,7 +529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9">
       <c r="A11" s="1">
         <v>491</v>
       </c>
@@ -534,7 +540,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="A12" s="1">
         <v>493</v>
       </c>
@@ -545,7 +551,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9">
       <c r="A13" s="1">
         <v>22</v>
       </c>
@@ -556,7 +562,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:9">
       <c r="A14" s="1">
         <v>213</v>
       </c>
@@ -567,7 +573,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:9">
       <c r="A15" s="1">
         <v>251</v>
       </c>
@@ -578,7 +584,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:9">
       <c r="A16" s="1">
         <v>275</v>
       </c>
@@ -589,7 +595,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:9">
       <c r="A17" s="1">
         <v>374</v>
       </c>
@@ -600,7 +606,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:9">
       <c r="A18" s="1">
         <v>378</v>
       </c>
@@ -611,7 +617,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:9">
       <c r="A19" s="1">
         <v>528</v>
       </c>
@@ -622,7 +628,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:9">
       <c r="A20" s="1">
         <v>529</v>
       </c>
@@ -633,7 +639,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:9">
       <c r="A21" s="1">
         <v>386</v>
       </c>
@@ -646,11 +652,23 @@
       <c r="D21">
         <v>130</v>
       </c>
+      <c r="E21">
+        <v>129</v>
+      </c>
       <c r="F21">
         <v>117</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21">
+        <v>132</v>
+      </c>
+      <c r="H21">
+        <v>133</v>
+      </c>
+      <c r="I21">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1">
         <v>350</v>
       </c>
@@ -661,7 +679,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:9">
       <c r="A23" s="1">
         <v>373</v>
       </c>
@@ -672,7 +690,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:9">
       <c r="A24" s="1">
         <v>249</v>
       </c>
@@ -683,7 +701,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:9">
       <c r="A25" s="1">
         <v>272</v>
       </c>
@@ -694,7 +712,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:9">
       <c r="A26" s="1">
         <v>356</v>
       </c>
@@ -705,7 +723,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:9">
       <c r="A27" s="1">
         <v>375</v>
       </c>
@@ -716,7 +734,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:9">
       <c r="A28" s="1">
         <v>0</v>
       </c>
@@ -727,7 +745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:9">
       <c r="A29" s="1">
         <v>6</v>
       </c>
@@ -738,7 +756,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:9">
       <c r="A30" s="1">
         <v>8</v>
       </c>
@@ -749,7 +767,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:9">
       <c r="A31" s="1">
         <v>10</v>
       </c>
@@ -760,7 +778,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:9">
       <c r="A32" s="1">
         <v>11</v>
       </c>
@@ -2016,10 +2034,10 @@
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="1">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B143">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C143">
         <v>55</v>
@@ -2027,10 +2045,10 @@
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="1">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B144">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C144">
         <v>208</v>
@@ -2038,10 +2056,10 @@
     </row>
     <row r="145" spans="1:8">
       <c r="A145" s="1">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B145">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C145">
         <v>53</v>
@@ -2049,10 +2067,10 @@
     </row>
     <row r="146" spans="1:8">
       <c r="A146" s="1">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B146">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C146">
         <v>51</v>
@@ -2060,10 +2078,10 @@
     </row>
     <row r="147" spans="1:8">
       <c r="A147" s="1">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B147">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C147">
         <v>49</v>
@@ -2299,6 +2317,9 @@
       <c r="B168">
         <v>561</v>
       </c>
+      <c r="D168">
+        <v>109</v>
+      </c>
       <c r="H168">
         <v>112</v>
       </c>
@@ -2382,68 +2403,79 @@
     </row>
     <row r="176" spans="1:8">
       <c r="A176" s="1">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B176">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H176">
         <v>54</v>
       </c>
     </row>
-    <row r="177" spans="1:8">
+    <row r="177" spans="1:9">
       <c r="A177" s="1">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B177">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H177">
         <v>207</v>
       </c>
     </row>
-    <row r="178" spans="1:8">
+    <row r="178" spans="1:9">
       <c r="A178" s="1">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B178">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H178">
         <v>52</v>
       </c>
     </row>
-    <row r="179" spans="1:8">
+    <row r="179" spans="1:9">
       <c r="A179" s="1">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B179">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="H179">
         <v>50</v>
       </c>
     </row>
-    <row r="180" spans="1:8">
+    <row r="180" spans="1:9">
       <c r="A180" s="1">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B180">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H180">
         <v>48</v>
       </c>
     </row>
-    <row r="181" spans="1:8">
+    <row r="181" spans="1:9">
       <c r="A181" s="1">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B181">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H181">
         <v>38</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
+      <c r="A182" s="1">
+        <v>219</v>
+      </c>
+      <c r="B182">
+        <v>219</v>
+      </c>
+      <c r="I182">
+        <v>189</v>
       </c>
     </row>
   </sheetData>
